--- a/results/DeterministicUSM/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -582,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -603,7 +603,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.6029411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="O2">
         <v>103</v>
@@ -621,16 +621,16 @@
         <v>2.942857142857143</v>
       </c>
       <c r="T2">
-        <v>1.854166666666667</v>
+        <v>2.12</v>
       </c>
       <c r="U2">
-        <v>0.6174353588242489</v>
+        <v>0.7514160886839212</v>
       </c>
       <c r="V2">
-        <v>11.36310277643605</v>
+        <v>18.42919556580394</v>
       </c>
       <c r="W2">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="X2">
         <v>885</v>
@@ -639,7 +639,7 @@
         <v>817</v>
       </c>
       <c r="Z2">
-        <v>1.033047735618115</v>
+        <v>1.01468788249694</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -662,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -683,7 +683,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.7294117647058823</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="O3">
         <v>115</v>
@@ -701,16 +701,16 @@
         <v>3.833333333333333</v>
       </c>
       <c r="T3">
-        <v>2.771428571428571</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="U3">
-        <v>1.019362917013969</v>
+        <v>1.479076094570857</v>
       </c>
       <c r="V3">
-        <v>26.32229790451108</v>
+        <v>34.37663029772457</v>
       </c>
       <c r="W3">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="X3">
         <v>955</v>
@@ -719,7 +719,7 @@
         <v>870</v>
       </c>
       <c r="Z3">
-        <v>1.026436781609195</v>
+        <v>1.027586206896552</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -763,7 +763,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.5463917525773195</v>
+        <v>0.6804123711340206</v>
       </c>
       <c r="O4">
         <v>131</v>
@@ -781,16 +781,16 @@
         <v>3.852941176470588</v>
       </c>
       <c r="T4">
-        <v>2.766666666666667</v>
+        <v>2.692307692307693</v>
       </c>
       <c r="U4">
-        <v>1.017643226134443</v>
+        <v>0.990398704027877</v>
       </c>
       <c r="V4">
-        <v>22.47070321596672</v>
+        <v>27.3744505429128</v>
       </c>
       <c r="W4">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="X4">
         <v>936</v>
@@ -799,7 +799,7 @@
         <v>839</v>
       </c>
       <c r="Z4">
-        <v>1.052443384982122</v>
+        <v>1.036948748510131</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -822,13 +822,13 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>48</v>
       </c>
       <c r="I5">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -843,7 +843,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9263157894736842</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="O5">
         <v>126</v>
@@ -861,16 +861,16 @@
         <v>4.064516129032258</v>
       </c>
       <c r="T5">
-        <v>2.833333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="U5">
-        <v>1.041453874828161</v>
+        <v>0.6505875661411494</v>
       </c>
       <c r="V5">
-        <v>38.01021400824826</v>
+        <v>12.77179682522483</v>
       </c>
       <c r="W5">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="X5">
         <v>934</v>
@@ -879,7 +879,7 @@
         <v>839</v>
       </c>
       <c r="Z5">
-        <v>1.00834326579261</v>
+        <v>1.060786650774732</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -902,13 +902,13 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -923,7 +923,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.6590909090909091</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="O6">
         <v>122</v>
@@ -941,16 +941,16 @@
         <v>3.588235294117647</v>
       </c>
       <c r="T6">
-        <v>2.567567567567568</v>
+        <v>2.404761904761905</v>
       </c>
       <c r="U6">
-        <v>0.9429589789563164</v>
+        <v>0.877450898557891</v>
       </c>
       <c r="V6">
-        <v>23.11051777861629</v>
+        <v>22.14706226056857</v>
       </c>
       <c r="W6">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="X6">
         <v>889</v>
@@ -959,7 +959,7 @@
         <v>801</v>
       </c>
       <c r="Z6">
-        <v>1.037453183520599</v>
+        <v>1.036204744069913</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -982,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1003,7 +1003,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.6407766990291263</v>
+        <v>0.5922330097087378</v>
       </c>
       <c r="O7">
         <v>127</v>
@@ -1021,16 +1021,16 @@
         <v>5.291666666666667</v>
       </c>
       <c r="T7">
-        <v>2.941176470588236</v>
+        <v>2.386363636363636</v>
       </c>
       <c r="U7">
-        <v>1.07880966137193</v>
+        <v>0.8697707162392622</v>
       </c>
       <c r="V7">
-        <v>29.32047151335438</v>
+        <v>22.73008848547246</v>
       </c>
       <c r="W7">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="X7">
         <v>913</v>
@@ -1039,7 +1039,7 @@
         <v>810</v>
       </c>
       <c r="Z7">
-        <v>1.045679012345679</v>
+        <v>1.051851851851852</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1062,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1083,7 +1083,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.6794871794871795</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="O8">
         <v>103</v>
@@ -1101,16 +1101,16 @@
         <v>4.12</v>
       </c>
       <c r="T8">
-        <v>2.472222222222222</v>
+        <v>2.452380952380953</v>
       </c>
       <c r="U8">
-        <v>0.9051174312760298</v>
+        <v>0.8970593699462676</v>
       </c>
       <c r="V8">
-        <v>20.41577247406293</v>
+        <v>23.32350646225676</v>
       </c>
       <c r="W8">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="X8">
         <v>936</v>
@@ -1119,7 +1119,7 @@
         <v>858</v>
       </c>
       <c r="Z8">
-        <v>1.029137529137529</v>
+        <v>1.01981351981352</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1142,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H9">
         <v>60</v>
       </c>
       <c r="I9">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -1163,7 +1163,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.5950413223140496</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="O9">
         <v>159</v>
@@ -1181,16 +1181,16 @@
         <v>4.184210526315789</v>
       </c>
       <c r="T9">
-        <v>2.2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="U9">
-        <v>0.7884573603642703</v>
+        <v>0.8472978603872037</v>
       </c>
       <c r="V9">
-        <v>24.69255837814379</v>
+        <v>29.16212837676778</v>
       </c>
       <c r="W9">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="X9">
         <v>1010</v>
@@ -1199,7 +1199,7 @@
         <v>889</v>
       </c>
       <c r="Z9">
-        <v>1.05511811023622</v>
+        <v>1.046119235095613</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1222,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1243,7 +1243,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.7954545454545454</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="O10">
         <v>115</v>
@@ -1261,16 +1261,16 @@
         <v>4.25925925925926</v>
       </c>
       <c r="T10">
-        <v>3.258064516129032</v>
+        <v>2.393939393939394</v>
       </c>
       <c r="U10">
-        <v>1.181133312356113</v>
+        <v>0.8729402910005413</v>
       </c>
       <c r="V10">
-        <v>33.38486731696049</v>
+        <v>17.19297039698214</v>
       </c>
       <c r="W10">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="X10">
         <v>901</v>
@@ -1279,7 +1279,7 @@
         <v>813</v>
       </c>
       <c r="Z10">
-        <v>1.022140221402214</v>
+        <v>1.051660516605166</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1323,7 +1323,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.6764705882352942</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="O11">
         <v>118</v>
@@ -1341,16 +1341,16 @@
         <v>7.375</v>
       </c>
       <c r="T11">
-        <v>3.464285714285714</v>
+        <v>3.4375</v>
       </c>
       <c r="U11">
-        <v>1.242506468328179</v>
+        <v>1.23474446299269</v>
       </c>
       <c r="V11">
-        <v>34.20981888681099</v>
+        <v>38.48817718423393</v>
       </c>
       <c r="W11">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="X11">
         <v>914</v>
@@ -1359,7 +1359,7 @@
         <v>812</v>
       </c>
       <c r="Z11">
-        <v>1.04064039408867</v>
+        <v>1.029556650246305</v>
       </c>
     </row>
   </sheetData>
